--- a/data/analyses/analysed_carpentry_instructors_UK_2020-12-03.xlsx
+++ b/data/analyses/analysed_carpentry_instructors_UK_2020-12-03.xlsx
@@ -3324,7 +3324,7 @@
     <t>EMA</t>
   </si>
   <si>
-    <t>Data in sheet 'carpentry_instructors' contains Carpentry workshop data from data/analyses/analysed_carpentry_instructors_UK_2020-12-03.xlsx. Analyses performed on 2020-12-03 11:01.</t>
+    <t>Data in sheet 'carpentry_instructors' contains Carpentry workshop data from data/analyses/analysed_carpentry_instructors_UK_2020-12-03.xlsx. Analyses performed on 2020-12-03 11:40.</t>
   </si>
   <si>
     <t>number_of_instructors</t>

--- a/data/analyses/analysed_carpentry_instructors_UK_2020-12-03.xlsx
+++ b/data/analyses/analysed_carpentry_instructors_UK_2020-12-03.xlsx
@@ -3324,7 +3324,7 @@
     <t>EMA</t>
   </si>
   <si>
-    <t>Data in sheet 'carpentry_instructors' contains Carpentry workshop data from data/analyses/analysed_carpentry_instructors_UK_2020-12-03.xlsx. Analyses performed on 2020-12-03 11:40.</t>
+    <t>Data in sheet 'carpentry_instructors' contains Carpentry workshop data from data/analyses/analysed_carpentry_instructors_UK_2020-12-03.xlsx. Analyses performed on 2020-12-03 11:43.</t>
   </si>
   <si>
     <t>number_of_instructors</t>

--- a/data/analyses/analysed_carpentry_instructors_UK_2020-12-03.xlsx
+++ b/data/analyses/analysed_carpentry_instructors_UK_2020-12-03.xlsx
@@ -3324,7 +3324,7 @@
     <t>EMA</t>
   </si>
   <si>
-    <t>Data in sheet 'carpentry_instructors' contains Carpentry workshop data from data/analyses/analysed_carpentry_instructors_UK_2020-12-03.xlsx. Analyses performed on 2020-12-03 11:43.</t>
+    <t>Data in sheet 'carpentry_instructors' contains Carpentry workshop data from data/analyses/analysed_carpentry_instructors_UK_2020-12-03.xlsx. Analyses performed on 2020-12-03 11:49.</t>
   </si>
   <si>
     <t>number_of_instructors</t>

--- a/data/analyses/analysed_carpentry_instructors_UK_2020-12-03.xlsx
+++ b/data/analyses/analysed_carpentry_instructors_UK_2020-12-03.xlsx
@@ -3324,7 +3324,7 @@
     <t>EMA</t>
   </si>
   <si>
-    <t>Data in sheet 'carpentry_instructors' contains Carpentry workshop data from data/analyses/analysed_carpentry_instructors_UK_2020-12-03.xlsx. Analyses performed on 2020-12-03 11:49.</t>
+    <t>Data in sheet 'carpentry_instructors' contains Carpentry workshop data from data/analyses/analysed_carpentry_instructors_UK_2020-12-03.xlsx. Analyses performed on 2020-12-03 11:52.</t>
   </si>
   <si>
     <t>number_of_instructors</t>
